--- a/User Stories 2-1.xlsx
+++ b/User Stories 2-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emreeren/Downloads/USER STORIES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emreeren/Desktop/MASTER/58dPaper/tempRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F4A63E-1515-9046-8702-9CF2FEE40FBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAF706F-42B6-D840-9230-2AE1A2C5306D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="98">
   <si>
     <t>USER STORIES</t>
   </si>
@@ -102,7 +102,7 @@
 </t>
   </si>
   <si>
-    <t>click on the address??</t>
+    <t>address</t>
   </si>
   <si>
     <t xml:space="preserve">As a user, I want to be able to select different types of recyclable waste, so I have and get a list of facilities that accept each type and their opening hours, so that I can find an optimal route and schedule.
@@ -112,6 +112,9 @@
     <t>['their']</t>
   </si>
   <si>
+    <t>a list of facilities</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a user, I want to add donation centers as favorites on my profile, so that I can view them later.
 </t>
   </si>
@@ -144,14 +147,23 @@
 </t>
   </si>
   <si>
+    <t>facilities</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a recyclingfacility, I want to be able to communicate directly with the site admin and convey any issues or concerns I have, so that they fix them.
 </t>
   </si>
   <si>
+    <t>site admin</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a Data Publishing User, I want to know what my data needs to be able to be visualised on a map, So that I can visualise it on a map.
 </t>
   </si>
   <si>
+    <t>my data</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a Data Consuming User, I want to be able to download an image ofa particular view state, So that I can use it offline.
 </t>
   </si>
@@ -182,6 +194,9 @@
 </t>
   </si>
   <si>
+    <t>dataset</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a Data Publishing User, I want to be able to add a dataset in a Hidden state, So that I can work on a dataset before having it discoverable via OpenSpending user interfaces.
 </t>
   </si>
@@ -197,17 +212,20 @@
 </t>
   </si>
   <si>
-    <t>dataset</t>
-  </si>
-  <si>
     <t xml:space="preserve">As an API user, I want to be able to change some of the styling of the embedded Viewer in my own platform, So that I can brand it to my own organisation's color scheme.
 </t>
   </si>
   <si>
+    <t>styling of the embedded Viewer</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a Platform administrator, I want to be able to translate the data types hierarchies of the Viewer while in embed mode, So that my users can understand the interface in their native language.
 </t>
   </si>
   <si>
+    <t>my users</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a Publisher, I want to add type information to my data, so that it is more useful to others and can be used better with tools like visualization programs.
 </t>
   </si>
@@ -219,6 +237,9 @@
     <t>['them', 'them']</t>
   </si>
   <si>
+    <t>new visualizations</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a ResearcherPublisher, I want to know that my data conforms to its Data Package profile, so that I can feel trust in the validity and usefulness of the data.
 </t>
   </si>
@@ -230,10 +251,16 @@
 </t>
   </si>
   <si>
+    <t>jQuery plugin</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a Machine Learning expert, I would like to package ML datasets as data packages, so that I can easily import them into my ML platform, so that I can start using the data in doing analysis.
 </t>
   </si>
   <si>
+    <t>ML datasets</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a Researcher, working with data, I want an Microsoft Power BI integration, so that I can import datasets without downloading them locally.
 </t>
   </si>
@@ -249,6 +276,15 @@
     <t>['it', 'their', 'it']</t>
   </si>
   <si>
+    <t>add basic metadata</t>
+  </si>
+  <si>
+    <t>researchers/users</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a publisher, I want to be able to check that every time I update my data it is still good, so that I can catch errors early and store reliable data.
 </t>
   </si>
@@ -257,6 +293,9 @@
 </t>
   </si>
   <si>
+    <t>assess the quality of data stored by the government</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a Civic Tech Activist, I want to make it easy to assess the quality of data stored by the government, so that I can make sure that government is living up to its transparency commitments.
 </t>
   </si>
@@ -264,6 +303,9 @@
     <t>['it', 'its']</t>
   </si>
   <si>
+    <t>government</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a Publisher, I want to know how many users have previewed a dataset, so that I know how interest in a dataset relates to its actual download numbers.
 </t>
   </si>
@@ -272,22 +314,37 @@
 </t>
   </si>
   <si>
+    <t>data package</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a Researcher, I want an app that generates an OpenRefine reconciliation API endpoint from a Tabular Data Package, so that I can use it to clean messy data.
 </t>
   </si>
   <si>
+    <t>app</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a ResearcherPublisher, I want to add a DOI to a dataset, so that I can cite it in papers stored  with the data.
 </t>
   </si>
   <si>
+    <t>DOI</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a site visitor, I want to email news items to the editor, so that they can be considered for publication.
 </t>
   </si>
   <si>
+    <t>news items</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a site visitor, I want to see a list of all upcoming Certification Courses and can page through them if there are a lot, so that I can choose the best course for me.
 </t>
   </si>
   <si>
+    <t>a list of all upcoming Other Courses</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a site visitor, I want to see a list of all upcoming Other Courses and can page through them if necessary, so that I can choose the best course for me.
 </t>
   </si>
@@ -296,15 +353,21 @@
 </t>
   </si>
   <si>
+    <t>Scrum Alliance</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a trainer, I want to update one of my existing courses or events, so that it reflects accurate information.
 </t>
+  </si>
+  <si>
+    <t>one of my existing courses or events</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -325,13 +388,24 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -346,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -356,6 +430,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,18 +651,18 @@
   </sheetPr>
   <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="49.5" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="5" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" ht="28">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -623,7 +698,7 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" ht="56">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -657,7 +732,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" ht="56">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -689,7 +764,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" ht="56">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -721,7 +796,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" ht="56">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -753,7 +828,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" ht="70" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" ht="70">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -785,7 +860,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" ht="70" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" ht="70">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -817,7 +892,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" ht="56">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -849,7 +924,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="42" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" ht="42">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -881,14 +956,16 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" ht="70" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" ht="70">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -911,15 +988,15 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" ht="42" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" ht="42">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -943,15 +1020,15 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" ht="42" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" ht="42">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -975,15 +1052,15 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" ht="56">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1007,15 +1084,15 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" ht="56">
       <c r="A14" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1039,14 +1116,16 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" ht="56">
       <c r="A15" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1069,14 +1148,16 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" ht="56">
       <c r="A16" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1099,14 +1180,16 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" ht="56">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1129,15 +1212,15 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" ht="42" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" ht="42">
       <c r="A18" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1161,15 +1244,15 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" ht="56">
       <c r="A19" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1193,15 +1276,15 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" ht="56">
       <c r="A20" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1225,15 +1308,15 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" ht="56">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1257,14 +1340,16 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" ht="56">
       <c r="A22" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1287,14 +1372,16 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" ht="56">
       <c r="A23" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1317,14 +1404,16 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" ht="70" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" ht="70">
       <c r="A24" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1347,15 +1436,15 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" ht="56">
       <c r="A25" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1379,9 +1468,9 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="56">
       <c r="A26" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>26</v>
@@ -1411,14 +1500,16 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" ht="56">
       <c r="A27" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1441,14 +1532,16 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" ht="70" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="70">
       <c r="A28" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1471,14 +1564,16 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" ht="56">
       <c r="A29" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1501,15 +1596,19 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" ht="56">
       <c r="A30" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1531,14 +1630,16 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" ht="56">
       <c r="A31" s="3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1561,14 +1662,16 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" ht="56">
       <c r="A32" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1591,14 +1694,16 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" ht="70" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:24" ht="70">
       <c r="A33" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1621,14 +1726,16 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:24" ht="56">
       <c r="A34" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1651,14 +1758,16 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:24" ht="56">
       <c r="A35" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1681,16 +1790,22 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:24" ht="70">
       <c r="A36" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1711,14 +1826,16 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:24" ht="56">
       <c r="A37" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1741,14 +1858,16 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:24" ht="56">
       <c r="A38" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -1771,15 +1890,19 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="1:24" ht="70" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:24" ht="70">
       <c r="A39" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1801,14 +1924,16 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:24" ht="56">
       <c r="A40" s="3" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1831,14 +1956,16 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="1:24" ht="70" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:24" ht="70">
       <c r="A41" s="3" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="1"/>
+      <c r="C41" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1861,14 +1988,16 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:24" ht="56">
       <c r="A42" s="3" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="1"/>
+      <c r="C42" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1891,14 +2020,16 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
     </row>
-    <row r="43" spans="1:24" ht="42" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:24" ht="42">
       <c r="A43" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="1"/>
+      <c r="C43" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1921,14 +2052,16 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
     </row>
-    <row r="44" spans="1:24" ht="42" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:24" ht="42">
       <c r="A44" s="3" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="1"/>
+      <c r="C44" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1951,14 +2084,16 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:24" ht="56">
       <c r="A45" s="3" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="1"/>
+      <c r="C45" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1981,14 +2116,16 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="1:24" ht="56" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24" ht="56">
       <c r="A46" s="3" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="1"/>
+      <c r="C46" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2011,14 +2148,16 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="1:24" ht="70" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24" ht="70">
       <c r="A47" s="3" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="1"/>
+      <c r="C47" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2041,14 +2180,16 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="1:24" ht="42" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24" ht="42">
       <c r="A48" s="3" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="1"/>
+      <c r="C48" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
